--- a/src/test/resources/cases_v3.xlsx
+++ b/src/test/resources/cases_v3.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="90">
   <si>
     <t>用例编号</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>{"code":0,"msg":"OK","data":{"id":2297,"member_id":77325,"loan_id":22424,"amount":6300.0,"create_time":"2020-09-19 09:59:15","is_valid":1},"copyright":"Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{"code":1003,"copyright":"Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved","msg":"无法解析的JSON值，请检查token或Authorization请求头"}</t>
   </si>
 </sst>
 </file>
@@ -295,9 +301,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1321,14 +1327,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.2222222222222" style="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.6666666666667" style="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7777777777778" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="52.8888888888889" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="64.7777777777778" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.5555555555556" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.4444444444444" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="14" width="17.3333333333333" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="27.2222222222222" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="15" width="15.6666666666667" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7777777777778" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="52.8888888888889" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="15" width="64.7777777777778" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.5555555555556" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="27.4444444444444" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="55.05" customHeight="1" spans="1:11">
@@ -1579,14 +1585,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="9.66666666666667" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5555555555556" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.66666666666667" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.8888888888889" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="58.5648148148148" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.7777777777778" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="37.3333333333333" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.66666666666667" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.5555555555556" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.66666666666667" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="56.8888888888889" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="58.5648148148148" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.7777777777778" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="37.3333333333333" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:10">
@@ -1827,7 +1833,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -1835,12 +1841,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="3" max="3" width="10.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="38.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="10.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="18.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="65.8888888888889" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="10.6666666666667" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="36.6666666666667" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="38.7777777777778" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="10.2222222222222" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="18.3333333333333" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="65.8888888888889" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="52.95" customHeight="1" spans="1:9">
@@ -1897,7 +1903,13 @@
       <c r="H2" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1926,7 +1938,13 @@
       <c r="H3" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
       <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1955,7 +1973,13 @@
       <c r="H4" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
       <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1984,7 +2008,13 @@
       <c r="H5" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
       <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2014,7 +2044,7 @@
         <v>67</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
@@ -2078,8 +2108,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="5" max="5" width="56.8888888888889" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.1111111111111" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" width="56.8888888888889" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.1111111111111" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2160,8 +2190,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="26.5555555555556" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="53.5555555555556" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="26.5555555555556" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="53.5555555555556" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2242,8 +2272,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="5" max="5" width="46.1111111111111" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="56.8888888888889" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" width="46.1111111111111" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="56.8888888888889" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2325,8 +2355,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="5" max="5" width="46.1111111111111" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="56.8888888888889" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" width="46.1111111111111" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="56.8888888888889" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
